--- a/Choukai.xlsx
+++ b/Choukai.xlsx
@@ -1,21 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="解答用紙" sheetId="1" r:id="rId1"/>
+    <sheet name="語彙" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>自分の答え</t>
+  </si>
+  <si>
+    <t>正解</t>
+  </si>
+  <si>
+    <t>語彙</t>
+  </si>
+  <si>
+    <t>Ý nghĩa</t>
+  </si>
+  <si>
+    <t>絶叫</t>
+  </si>
+  <si>
+    <t>Tiếng thét</t>
+  </si>
+  <si>
+    <t>読み方</t>
+  </si>
+  <si>
+    <t>ぜっきょう</t>
+  </si>
+  <si>
+    <t>コースター</t>
+  </si>
+  <si>
+    <t>Trò tàu lượn siêu tốc</t>
+  </si>
+  <si>
+    <t>おなじみ</t>
+  </si>
+  <si>
+    <t>Quen thuộc</t>
+  </si>
+  <si>
+    <t>魚市場</t>
+  </si>
+  <si>
+    <t>うおいちば</t>
+  </si>
+  <si>
+    <t>Chợ cá</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>ぶしょ</t>
+  </si>
+  <si>
+    <t>Nơi phụ trách, đảm nhiệm</t>
+  </si>
+  <si>
+    <t>市場調査</t>
+  </si>
+  <si>
+    <t>しじょうちょうさ</t>
+  </si>
+  <si>
+    <t>Khảo sát thị trường</t>
+  </si>
+  <si>
+    <t>録音</t>
+  </si>
+  <si>
+    <t>ろくおん</t>
+  </si>
+  <si>
+    <t>Ghi âm</t>
+  </si>
+  <si>
+    <t>ICレコーダー</t>
+  </si>
+  <si>
+    <t>Máy ghi âm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +110,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +147,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +544,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="str">
+        <f>"CD# A-0"&amp;(ROW()+5)</f>
+        <v>CD# A-08</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(B3=C3,"TRUE","FALSE")</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="str">
+        <f t="shared" ref="A4:A17" si="0">"CD# A-0"&amp;(ROW()+5)</f>
+        <v>CD# A-09</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(B4=C4,"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-010</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D4:D15" si="1">IF(B5=C5,"TRUE","FALSE")</f>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-011</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-012</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-013</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-014</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-015</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-016</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-017</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-018</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-019</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>CD# A-020</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D3:D100">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>